--- a/titlePilotStudy/data/ITA.xlsx
+++ b/titlePilotStudy/data/ITA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HU-GIT\COST\WG1\titlePilotStudy\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roxana\Desktop\CONFERINTE toamna 2019\malaga 2020\iunie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="264">
   <si>
     <t>ITBI0087</t>
   </si>
@@ -1034,9 +1034,6 @@
     </r>
   </si>
   <si>
-    <t>alessandro mazoni</t>
-  </si>
-  <si>
     <t>adjective</t>
   </si>
   <si>
@@ -1082,9 +1079,6 @@
     <t>orsenigo</t>
   </si>
   <si>
-    <t>i.u. Tarchetti</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">palazo </t>
     </r>
@@ -1103,12 +1097,6 @@
     <t>carignano</t>
   </si>
   <si>
-    <t>f.d. guerazzi</t>
-  </si>
-  <si>
-    <t>cleto arrighi</t>
-  </si>
-  <si>
     <t>6febbrajo</t>
   </si>
   <si>
@@ -1133,12 +1121,6 @@
     <t>T2</t>
   </si>
   <si>
-    <t xml:space="preserve">1975(1859) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005(1853) </t>
-  </si>
-  <si>
     <t xml:space="preserve">1862(1862) </t>
   </si>
   <si>
@@ -1151,46 +1133,7 @@
     <t xml:space="preserve">1883(1867) </t>
   </si>
   <si>
-    <t xml:space="preserve">1964(1867) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1971(1869) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1975(1876) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1988(1861) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1995(1866) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1996(1875) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">unav.(1875) </t>
-  </si>
-  <si>
     <t xml:space="preserve">? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1890(1890) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1989(1889) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1995(1894) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1996(1892) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1912(1912) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1917(1913) </t>
   </si>
 </sst>
 </file>
@@ -1325,8 +1268,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1342,7 +1285,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1606,28 +1549,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF322"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O1" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="12" max="32" width="10.88671875" style="6"/>
-    <col min="33" max="43" width="8.88671875" style="6" customWidth="1"/>
-    <col min="44" max="44" width="8.88671875" style="6"/>
-    <col min="45" max="47" width="12.6640625" style="6" customWidth="1"/>
-    <col min="48" max="48" width="8.21875" style="6" customWidth="1"/>
-    <col min="49" max="49" width="7.88671875" style="6" customWidth="1"/>
-    <col min="50" max="50" width="10.5546875" style="6" customWidth="1"/>
-    <col min="51" max="51" width="11.6640625" style="6" customWidth="1"/>
+    <col min="12" max="32" width="10.90625" style="6"/>
+    <col min="33" max="43" width="8.90625" style="6" customWidth="1"/>
+    <col min="44" max="44" width="8.90625" style="6"/>
+    <col min="45" max="47" width="12.6328125" style="6" customWidth="1"/>
+    <col min="48" max="48" width="8.1796875" style="6" customWidth="1"/>
+    <col min="49" max="49" width="7.90625" style="6" customWidth="1"/>
+    <col min="50" max="50" width="10.54296875" style="6" customWidth="1"/>
+    <col min="51" max="51" width="11.6328125" style="6" customWidth="1"/>
     <col min="52" max="52" width="9" style="6" customWidth="1"/>
-    <col min="53" max="53" width="8.88671875" style="6"/>
-    <col min="54" max="58" width="10.88671875" style="6"/>
+    <col min="53" max="53" width="8.90625" style="6"/>
+    <col min="54" max="58" width="10.90625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>77</v>
       </c>
@@ -1644,10 +1587,10 @@
         <v>81</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>82</v>
@@ -1803,7 +1746,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:58" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1818,10 +1761,10 @@
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>17</v>
@@ -1977,7 +1920,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:58" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -1992,10 +1935,10 @@
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>106</v>
@@ -2151,7 +2094,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:58" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2166,10 +2109,10 @@
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>241</v>
@@ -2325,7 +2268,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:58" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:58" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -2343,7 +2286,7 @@
         <v>1842</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>108</v>
@@ -2400,13 +2343,13 @@
         <v>157</v>
       </c>
       <c r="Z5" s="7" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="AA5" s="7" t="s">
         <v>104</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>242</v>
+        <v>104</v>
       </c>
       <c r="AC5" s="7" t="s">
         <v>104</v>
@@ -2457,7 +2400,7 @@
         <v>153</v>
       </c>
       <c r="AS5" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AT5" s="8" t="s">
         <v>104</v>
@@ -2499,7 +2442,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:58" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -2517,7 +2460,7 @@
         <v>1852</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>25</v>
@@ -2607,7 +2550,7 @@
         <v>167</v>
       </c>
       <c r="AK6" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AL6" s="7" t="s">
         <v>104</v>
@@ -2673,7 +2616,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:58" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:58" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
@@ -2688,10 +2631,10 @@
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>48</v>
@@ -2709,7 +2652,7 @@
         <v>141</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>104</v>
@@ -2754,7 +2697,7 @@
         <v>104</v>
       </c>
       <c r="AB7" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AC7" s="7" t="s">
         <v>104</v>
@@ -2823,7 +2766,7 @@
         <v>155</v>
       </c>
       <c r="AY7" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AZ7" s="8" t="s">
         <v>104</v>
@@ -2847,7 +2790,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:58" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:58" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
@@ -2862,10 +2805,10 @@
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>110</v>
@@ -3021,7 +2964,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:58" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:58" ht="348" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -3036,10 +2979,10 @@
         <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>112</v>
@@ -3057,7 +3000,7 @@
         <v>141</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>104</v>
@@ -3193,7 +3136,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:58" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:58" ht="116" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -3211,7 +3154,7 @@
         <v>1883</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>239</v>
@@ -3367,7 +3310,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:58" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -3385,7 +3328,7 @@
         <v>1883</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>107</v>
@@ -3541,7 +3484,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:58" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:58" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -3556,10 +3499,10 @@
         <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>115</v>
@@ -3616,13 +3559,13 @@
         <v>144</v>
       </c>
       <c r="Z12" s="7" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="AA12" s="7" t="s">
         <v>104</v>
       </c>
       <c r="AB12" s="7" t="s">
-        <v>253</v>
+        <v>104</v>
       </c>
       <c r="AC12" s="7" t="s">
         <v>104</v>
@@ -3688,10 +3631,10 @@
         <v>139</v>
       </c>
       <c r="AX12" s="8" t="s">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="AY12" s="8" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="AZ12" s="8" t="s">
         <v>138</v>
@@ -3715,7 +3658,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:58" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:58" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>69</v>
       </c>
@@ -3730,10 +3673,10 @@
         <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>70</v>
@@ -3889,7 +3832,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:58" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -3907,7 +3850,7 @@
         <v>1885</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>109</v>
@@ -4063,7 +4006,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:58" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:58" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>68</v>
       </c>
@@ -4077,11 +4020,11 @@
       <c r="E15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>277</v>
+      <c r="F15" s="1">
+        <v>1890</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>123</v>
@@ -4237,7 +4180,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:58" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -4255,7 +4198,7 @@
         <v>1892</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>9</v>
@@ -4411,7 +4354,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:58" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
@@ -4429,7 +4372,7 @@
         <v>1898</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>3</v>
@@ -4585,7 +4528,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:58" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -4603,7 +4546,7 @@
         <v>1912</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>34</v>
@@ -4666,7 +4609,7 @@
         <v>104</v>
       </c>
       <c r="AB18" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AC18" s="7" t="s">
         <v>104</v>
@@ -4759,7 +4702,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:58" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>60</v>
       </c>
@@ -4773,11 +4716,11 @@
       <c r="E19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>281</v>
+      <c r="F19" s="1">
+        <v>1912</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>119</v>
@@ -4933,7 +4876,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:58" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>58</v>
       </c>
@@ -4947,11 +4890,11 @@
       <c r="E20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>282</v>
+      <c r="F20" s="1">
+        <v>1913</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>118</v>
@@ -5107,7 +5050,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:58" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -5125,10 +5068,10 @@
         <v>1919</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>22</v>
@@ -5281,7 +5224,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:58" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -5299,10 +5242,10 @@
         <v>1920</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>22</v>
@@ -5455,7 +5398,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:58" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -5473,7 +5416,7 @@
         <v>1923</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>105</v>
@@ -5629,7 +5572,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:58" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:58" ht="116" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>64</v>
       </c>
@@ -5643,11 +5586,11 @@
       <c r="E24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>269</v>
+      <c r="F24" s="1">
+        <v>1867</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>121</v>
@@ -5803,7 +5746,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:58" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>43</v>
       </c>
@@ -5817,11 +5760,11 @@
       <c r="E25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>270</v>
+      <c r="F25" s="1">
+        <v>1869</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>114</v>
@@ -5878,13 +5821,13 @@
         <v>183</v>
       </c>
       <c r="Z25" s="7" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="AA25" s="7" t="s">
         <v>104</v>
       </c>
       <c r="AB25" s="7" t="s">
-        <v>250</v>
+        <v>104</v>
       </c>
       <c r="AC25" s="7" t="s">
         <v>104</v>
@@ -5950,10 +5893,10 @@
         <v>139</v>
       </c>
       <c r="AX25" s="8" t="s">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="AY25" s="8" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="AZ25" s="8" t="s">
         <v>104</v>
@@ -5977,7 +5920,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:58" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
@@ -5991,11 +5934,11 @@
       <c r="E26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>263</v>
+      <c r="F26" s="1">
+        <v>1859</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>111</v>
@@ -6151,7 +6094,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:58" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:58" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
@@ -6165,11 +6108,11 @@
       <c r="E27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>271</v>
+      <c r="F27" s="1">
+        <v>1876</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>113</v>
@@ -6232,7 +6175,7 @@
         <v>104</v>
       </c>
       <c r="AB27" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AC27" s="7" t="s">
         <v>104</v>
@@ -6325,7 +6268,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="1:58" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:58" ht="174" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>62</v>
       </c>
@@ -6339,11 +6282,11 @@
       <c r="E28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>272</v>
+      <c r="F28" s="1">
+        <v>1861</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>120</v>
@@ -6400,13 +6343,13 @@
         <v>104</v>
       </c>
       <c r="Z28" s="7" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="AA28" s="7" t="s">
         <v>104</v>
       </c>
       <c r="AB28" s="7" t="s">
-        <v>254</v>
+        <v>104</v>
       </c>
       <c r="AC28" s="7" t="s">
         <v>104</v>
@@ -6433,7 +6376,7 @@
         <v>167</v>
       </c>
       <c r="AK28" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AL28" s="7" t="s">
         <v>104</v>
@@ -6472,10 +6415,10 @@
         <v>166</v>
       </c>
       <c r="AX28" s="8" t="s">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="AY28" s="8" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="AZ28" s="8" t="s">
         <v>138</v>
@@ -6499,7 +6442,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="29" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:58" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>54</v>
       </c>
@@ -6513,11 +6456,11 @@
       <c r="E29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>278</v>
+      <c r="F29" s="1">
+        <v>1889</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>55</v>
@@ -6673,7 +6616,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:58" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>75</v>
       </c>
@@ -6687,11 +6630,11 @@
       <c r="E30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>273</v>
+      <c r="F30" s="1">
+        <v>1866</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>76</v>
@@ -6847,7 +6790,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:58" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>50</v>
       </c>
@@ -6861,11 +6804,11 @@
       <c r="E31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>279</v>
+      <c r="F31" s="1">
+        <v>1894</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>117</v>
@@ -7021,7 +6964,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:58" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:58" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>73</v>
       </c>
@@ -7035,11 +6978,11 @@
       <c r="E32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>274</v>
+      <c r="F32" s="1">
+        <v>1875</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>74</v>
@@ -7195,7 +7138,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:58" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>71</v>
       </c>
@@ -7209,11 +7152,11 @@
       <c r="E33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>280</v>
+      <c r="F33" s="1">
+        <v>1892</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>124</v>
@@ -7369,7 +7312,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:58" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:58" ht="174" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -7383,11 +7326,11 @@
       <c r="E34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>264</v>
+      <c r="F34" s="1">
+        <v>1853</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>122</v>
@@ -7477,7 +7420,7 @@
         <v>167</v>
       </c>
       <c r="AK34" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AL34" s="7" t="s">
         <v>146</v>
@@ -7543,7 +7486,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="1:58" ht="72" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:58" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>52</v>
       </c>
@@ -7557,11 +7500,11 @@
       <c r="E35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>275</v>
+      <c r="F35" s="1">
+        <v>1875</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>116</v>
@@ -7717,7 +7660,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.35">
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
@@ -7751,7 +7694,7 @@
       <c r="AP36" s="7"/>
       <c r="AQ36" s="7"/>
     </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:58" x14ac:dyDescent="0.35">
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
@@ -7785,7 +7728,7 @@
       <c r="AP37" s="7"/>
       <c r="AQ37" s="7"/>
     </row>
-    <row r="38" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:58" x14ac:dyDescent="0.35">
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
@@ -7819,7 +7762,7 @@
       <c r="AP38" s="7"/>
       <c r="AQ38" s="7"/>
     </row>
-    <row r="39" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:58" x14ac:dyDescent="0.35">
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
@@ -7853,7 +7796,7 @@
       <c r="AP39" s="7"/>
       <c r="AQ39" s="7"/>
     </row>
-    <row r="40" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:58" x14ac:dyDescent="0.35">
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
@@ -7887,7 +7830,7 @@
       <c r="AP40" s="7"/>
       <c r="AQ40" s="7"/>
     </row>
-    <row r="41" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.35">
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
@@ -7921,7 +7864,7 @@
       <c r="AP41" s="7"/>
       <c r="AQ41" s="7"/>
     </row>
-    <row r="42" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:58" x14ac:dyDescent="0.35">
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
@@ -7955,7 +7898,7 @@
       <c r="AP42" s="7"/>
       <c r="AQ42" s="7"/>
     </row>
-    <row r="43" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:58" x14ac:dyDescent="0.35">
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
@@ -7989,7 +7932,7 @@
       <c r="AP43" s="7"/>
       <c r="AQ43" s="7"/>
     </row>
-    <row r="44" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:58" x14ac:dyDescent="0.35">
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
@@ -8023,7 +7966,7 @@
       <c r="AP44" s="7"/>
       <c r="AQ44" s="7"/>
     </row>
-    <row r="45" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:58" x14ac:dyDescent="0.35">
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
@@ -8057,7 +8000,7 @@
       <c r="AP45" s="7"/>
       <c r="AQ45" s="7"/>
     </row>
-    <row r="46" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:58" x14ac:dyDescent="0.35">
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
@@ -8091,7 +8034,7 @@
       <c r="AP46" s="7"/>
       <c r="AQ46" s="7"/>
     </row>
-    <row r="47" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:58" x14ac:dyDescent="0.35">
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
@@ -8125,7 +8068,7 @@
       <c r="AP47" s="7"/>
       <c r="AQ47" s="7"/>
     </row>
-    <row r="48" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:58" x14ac:dyDescent="0.35">
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
@@ -8159,7 +8102,7 @@
       <c r="AP48" s="7"/>
       <c r="AQ48" s="7"/>
     </row>
-    <row r="49" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="49" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
@@ -8193,7 +8136,7 @@
       <c r="AP49" s="7"/>
       <c r="AQ49" s="7"/>
     </row>
-    <row r="50" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="50" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
@@ -8227,7 +8170,7 @@
       <c r="AP50" s="7"/>
       <c r="AQ50" s="7"/>
     </row>
-    <row r="51" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="51" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
@@ -8261,7 +8204,7 @@
       <c r="AP51" s="7"/>
       <c r="AQ51" s="7"/>
     </row>
-    <row r="52" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="52" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
@@ -8295,7 +8238,7 @@
       <c r="AP52" s="7"/>
       <c r="AQ52" s="7"/>
     </row>
-    <row r="53" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="53" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
@@ -8329,7 +8272,7 @@
       <c r="AP53" s="7"/>
       <c r="AQ53" s="7"/>
     </row>
-    <row r="54" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="54" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
@@ -8363,7 +8306,7 @@
       <c r="AP54" s="7"/>
       <c r="AQ54" s="7"/>
     </row>
-    <row r="55" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="55" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
@@ -8397,7 +8340,7 @@
       <c r="AP55" s="7"/>
       <c r="AQ55" s="7"/>
     </row>
-    <row r="56" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="56" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
@@ -8431,7 +8374,7 @@
       <c r="AP56" s="7"/>
       <c r="AQ56" s="7"/>
     </row>
-    <row r="57" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="57" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
@@ -8465,7 +8408,7 @@
       <c r="AP57" s="7"/>
       <c r="AQ57" s="7"/>
     </row>
-    <row r="58" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="58" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
@@ -8499,7 +8442,7 @@
       <c r="AP58" s="7"/>
       <c r="AQ58" s="7"/>
     </row>
-    <row r="59" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="59" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
@@ -8533,7 +8476,7 @@
       <c r="AP59" s="7"/>
       <c r="AQ59" s="7"/>
     </row>
-    <row r="60" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="60" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
@@ -8567,7 +8510,7 @@
       <c r="AP60" s="7"/>
       <c r="AQ60" s="7"/>
     </row>
-    <row r="61" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="61" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
@@ -8601,7 +8544,7 @@
       <c r="AP61" s="7"/>
       <c r="AQ61" s="7"/>
     </row>
-    <row r="62" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="62" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
@@ -8635,7 +8578,7 @@
       <c r="AP62" s="7"/>
       <c r="AQ62" s="7"/>
     </row>
-    <row r="63" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="63" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
@@ -8669,7 +8612,7 @@
       <c r="AP63" s="7"/>
       <c r="AQ63" s="7"/>
     </row>
-    <row r="64" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="64" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
@@ -8703,7 +8646,7 @@
       <c r="AP64" s="7"/>
       <c r="AQ64" s="7"/>
     </row>
-    <row r="65" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="65" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
@@ -8737,7 +8680,7 @@
       <c r="AP65" s="7"/>
       <c r="AQ65" s="7"/>
     </row>
-    <row r="66" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="66" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
@@ -8771,7 +8714,7 @@
       <c r="AP66" s="7"/>
       <c r="AQ66" s="7"/>
     </row>
-    <row r="67" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="67" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
@@ -8805,7 +8748,7 @@
       <c r="AP67" s="7"/>
       <c r="AQ67" s="7"/>
     </row>
-    <row r="68" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="68" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
@@ -8839,7 +8782,7 @@
       <c r="AP68" s="7"/>
       <c r="AQ68" s="7"/>
     </row>
-    <row r="69" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="69" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
@@ -8873,7 +8816,7 @@
       <c r="AP69" s="7"/>
       <c r="AQ69" s="7"/>
     </row>
-    <row r="70" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="70" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
@@ -8907,7 +8850,7 @@
       <c r="AP70" s="7"/>
       <c r="AQ70" s="7"/>
     </row>
-    <row r="71" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="71" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
@@ -8941,7 +8884,7 @@
       <c r="AP71" s="7"/>
       <c r="AQ71" s="7"/>
     </row>
-    <row r="72" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="72" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
@@ -8975,7 +8918,7 @@
       <c r="AP72" s="7"/>
       <c r="AQ72" s="7"/>
     </row>
-    <row r="73" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="73" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
@@ -9009,7 +8952,7 @@
       <c r="AP73" s="7"/>
       <c r="AQ73" s="7"/>
     </row>
-    <row r="74" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="74" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
@@ -9043,7 +8986,7 @@
       <c r="AP74" s="7"/>
       <c r="AQ74" s="7"/>
     </row>
-    <row r="75" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="75" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
       <c r="N75" s="7"/>
@@ -9077,7 +9020,7 @@
       <c r="AP75" s="7"/>
       <c r="AQ75" s="7"/>
     </row>
-    <row r="76" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="76" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
       <c r="N76" s="7"/>
@@ -9111,7 +9054,7 @@
       <c r="AP76" s="7"/>
       <c r="AQ76" s="7"/>
     </row>
-    <row r="77" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="77" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
       <c r="N77" s="7"/>
@@ -9145,7 +9088,7 @@
       <c r="AP77" s="7"/>
       <c r="AQ77" s="7"/>
     </row>
-    <row r="78" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="78" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
       <c r="N78" s="7"/>
@@ -9179,7 +9122,7 @@
       <c r="AP78" s="7"/>
       <c r="AQ78" s="7"/>
     </row>
-    <row r="79" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="79" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
       <c r="N79" s="7"/>
@@ -9213,7 +9156,7 @@
       <c r="AP79" s="7"/>
       <c r="AQ79" s="7"/>
     </row>
-    <row r="80" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="80" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
       <c r="N80" s="7"/>
@@ -9247,7 +9190,7 @@
       <c r="AP80" s="7"/>
       <c r="AQ80" s="7"/>
     </row>
-    <row r="81" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="81" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
       <c r="N81" s="7"/>
@@ -9281,7 +9224,7 @@
       <c r="AP81" s="7"/>
       <c r="AQ81" s="7"/>
     </row>
-    <row r="82" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="82" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
       <c r="N82" s="7"/>
@@ -9315,7 +9258,7 @@
       <c r="AP82" s="7"/>
       <c r="AQ82" s="7"/>
     </row>
-    <row r="83" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="83" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
       <c r="N83" s="7"/>
@@ -9349,7 +9292,7 @@
       <c r="AP83" s="7"/>
       <c r="AQ83" s="7"/>
     </row>
-    <row r="84" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="84" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
       <c r="N84" s="7"/>
@@ -9383,7 +9326,7 @@
       <c r="AP84" s="7"/>
       <c r="AQ84" s="7"/>
     </row>
-    <row r="85" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="85" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
@@ -9417,7 +9360,7 @@
       <c r="AP85" s="7"/>
       <c r="AQ85" s="7"/>
     </row>
-    <row r="86" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="86" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
       <c r="N86" s="7"/>
@@ -9451,7 +9394,7 @@
       <c r="AP86" s="7"/>
       <c r="AQ86" s="7"/>
     </row>
-    <row r="87" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="87" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
       <c r="N87" s="7"/>
@@ -9485,7 +9428,7 @@
       <c r="AP87" s="7"/>
       <c r="AQ87" s="7"/>
     </row>
-    <row r="88" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="88" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
       <c r="N88" s="7"/>
@@ -9519,7 +9462,7 @@
       <c r="AP88" s="7"/>
       <c r="AQ88" s="7"/>
     </row>
-    <row r="89" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="89" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
       <c r="N89" s="7"/>
@@ -9553,7 +9496,7 @@
       <c r="AP89" s="7"/>
       <c r="AQ89" s="7"/>
     </row>
-    <row r="90" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="90" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
       <c r="N90" s="7"/>
@@ -9587,7 +9530,7 @@
       <c r="AP90" s="7"/>
       <c r="AQ90" s="7"/>
     </row>
-    <row r="91" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="91" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
       <c r="N91" s="7"/>
@@ -9621,7 +9564,7 @@
       <c r="AP91" s="7"/>
       <c r="AQ91" s="7"/>
     </row>
-    <row r="92" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="92" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
       <c r="N92" s="7"/>
@@ -9655,7 +9598,7 @@
       <c r="AP92" s="7"/>
       <c r="AQ92" s="7"/>
     </row>
-    <row r="93" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="93" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L93" s="8"/>
       <c r="M93" s="8"/>
       <c r="N93" s="8"/>
@@ -9689,7 +9632,7 @@
       <c r="AP93" s="8"/>
       <c r="AQ93" s="8"/>
     </row>
-    <row r="94" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="94" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L94" s="8"/>
       <c r="M94" s="8"/>
       <c r="N94" s="8"/>
@@ -9723,7 +9666,7 @@
       <c r="AP94" s="8"/>
       <c r="AQ94" s="8"/>
     </row>
-    <row r="95" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="95" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L95" s="8"/>
       <c r="M95" s="8"/>
       <c r="N95" s="8"/>
@@ -9757,7 +9700,7 @@
       <c r="AP95" s="8"/>
       <c r="AQ95" s="8"/>
     </row>
-    <row r="96" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="96" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L96" s="8"/>
       <c r="M96" s="8"/>
       <c r="N96" s="8"/>
@@ -9791,7 +9734,7 @@
       <c r="AP96" s="8"/>
       <c r="AQ96" s="8"/>
     </row>
-    <row r="97" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="97" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L97" s="8"/>
       <c r="M97" s="8"/>
       <c r="N97" s="8"/>
@@ -9825,7 +9768,7 @@
       <c r="AP97" s="8"/>
       <c r="AQ97" s="8"/>
     </row>
-    <row r="98" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="98" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L98" s="8"/>
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
@@ -9859,7 +9802,7 @@
       <c r="AP98" s="8"/>
       <c r="AQ98" s="8"/>
     </row>
-    <row r="99" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="99" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L99" s="8"/>
       <c r="M99" s="8"/>
       <c r="N99" s="8"/>
@@ -9893,7 +9836,7 @@
       <c r="AP99" s="8"/>
       <c r="AQ99" s="8"/>
     </row>
-    <row r="100" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="100" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L100" s="8"/>
       <c r="M100" s="8"/>
       <c r="N100" s="8"/>
@@ -9927,7 +9870,7 @@
       <c r="AP100" s="8"/>
       <c r="AQ100" s="8"/>
     </row>
-    <row r="101" spans="12:43" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="12:43" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L101" s="8"/>
       <c r="M101" s="8"/>
       <c r="N101" s="9"/>
@@ -9961,7 +9904,7 @@
       <c r="AP101" s="8"/>
       <c r="AQ101" s="8"/>
     </row>
-    <row r="102" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="102" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L102" s="8"/>
       <c r="M102" s="8"/>
       <c r="N102" s="8"/>
@@ -9995,7 +9938,7 @@
       <c r="AP102" s="8"/>
       <c r="AQ102" s="8"/>
     </row>
-    <row r="103" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="103" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L103" s="8"/>
       <c r="M103" s="8"/>
       <c r="N103" s="8"/>
@@ -10029,7 +9972,7 @@
       <c r="AP103" s="8"/>
       <c r="AQ103" s="8"/>
     </row>
-    <row r="104" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="104" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L104" s="8"/>
       <c r="M104" s="8"/>
       <c r="N104" s="8"/>
@@ -10063,7 +10006,7 @@
       <c r="AP104" s="8"/>
       <c r="AQ104" s="8"/>
     </row>
-    <row r="105" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="105" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L105" s="8"/>
       <c r="M105" s="8"/>
       <c r="N105" s="8"/>
@@ -10097,7 +10040,7 @@
       <c r="AP105" s="8"/>
       <c r="AQ105" s="8"/>
     </row>
-    <row r="106" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="106" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L106" s="8"/>
       <c r="M106" s="8"/>
       <c r="N106" s="8"/>
@@ -10131,7 +10074,7 @@
       <c r="AP106" s="8"/>
       <c r="AQ106" s="8"/>
     </row>
-    <row r="107" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="107" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L107" s="8"/>
       <c r="M107" s="8"/>
       <c r="N107" s="8"/>
@@ -10165,7 +10108,7 @@
       <c r="AP107" s="8"/>
       <c r="AQ107" s="8"/>
     </row>
-    <row r="108" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="108" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L108" s="8"/>
       <c r="M108" s="8"/>
       <c r="N108" s="8"/>
@@ -10199,7 +10142,7 @@
       <c r="AP108" s="8"/>
       <c r="AQ108" s="8"/>
     </row>
-    <row r="109" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="109" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L109" s="8"/>
       <c r="M109" s="8"/>
       <c r="N109" s="8"/>
@@ -10233,7 +10176,7 @@
       <c r="AP109" s="8"/>
       <c r="AQ109" s="8"/>
     </row>
-    <row r="110" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="110" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L110" s="8"/>
       <c r="M110" s="8"/>
       <c r="N110" s="8"/>
@@ -10267,7 +10210,7 @@
       <c r="AP110" s="8"/>
       <c r="AQ110" s="8"/>
     </row>
-    <row r="111" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="111" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L111" s="8"/>
       <c r="M111" s="8"/>
       <c r="N111" s="8"/>
@@ -10301,7 +10244,7 @@
       <c r="AP111" s="8"/>
       <c r="AQ111" s="8"/>
     </row>
-    <row r="112" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="112" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L112" s="8"/>
       <c r="M112" s="8"/>
       <c r="N112" s="8"/>
@@ -10335,7 +10278,7 @@
       <c r="AP112" s="8"/>
       <c r="AQ112" s="8"/>
     </row>
-    <row r="113" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="113" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L113" s="8"/>
       <c r="M113" s="8"/>
       <c r="N113" s="8"/>
@@ -10369,7 +10312,7 @@
       <c r="AP113" s="8"/>
       <c r="AQ113" s="8"/>
     </row>
-    <row r="114" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="114" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L114" s="8"/>
       <c r="M114" s="8"/>
       <c r="N114" s="8"/>
@@ -10403,7 +10346,7 @@
       <c r="AP114" s="8"/>
       <c r="AQ114" s="8"/>
     </row>
-    <row r="115" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="115" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L115" s="8"/>
       <c r="M115" s="8"/>
       <c r="N115" s="8"/>
@@ -10437,7 +10380,7 @@
       <c r="AP115" s="8"/>
       <c r="AQ115" s="8"/>
     </row>
-    <row r="116" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="116" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L116" s="8"/>
       <c r="M116" s="8"/>
       <c r="N116" s="8"/>
@@ -10471,7 +10414,7 @@
       <c r="AP116" s="8"/>
       <c r="AQ116" s="8"/>
     </row>
-    <row r="117" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="117" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L117" s="8"/>
       <c r="M117" s="8"/>
       <c r="N117" s="8"/>
@@ -10505,7 +10448,7 @@
       <c r="AP117" s="8"/>
       <c r="AQ117" s="8"/>
     </row>
-    <row r="118" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="118" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L118" s="8"/>
       <c r="M118" s="8"/>
       <c r="N118" s="8"/>
@@ -10539,7 +10482,7 @@
       <c r="AP118" s="8"/>
       <c r="AQ118" s="8"/>
     </row>
-    <row r="119" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="119" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L119" s="8"/>
       <c r="M119" s="8"/>
       <c r="N119" s="8"/>
@@ -10573,7 +10516,7 @@
       <c r="AP119" s="8"/>
       <c r="AQ119" s="8"/>
     </row>
-    <row r="120" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="120" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L120" s="8"/>
       <c r="M120" s="8"/>
       <c r="N120" s="8"/>
@@ -10607,7 +10550,7 @@
       <c r="AP120" s="8"/>
       <c r="AQ120" s="8"/>
     </row>
-    <row r="121" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="121" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L121" s="8"/>
       <c r="M121" s="8"/>
       <c r="N121" s="8"/>
@@ -10641,7 +10584,7 @@
       <c r="AP121" s="8"/>
       <c r="AQ121" s="8"/>
     </row>
-    <row r="122" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="122" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L122" s="8"/>
       <c r="M122" s="8"/>
       <c r="N122" s="8"/>
@@ -10675,7 +10618,7 @@
       <c r="AP122" s="8"/>
       <c r="AQ122" s="8"/>
     </row>
-    <row r="123" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="123" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L123" s="8"/>
       <c r="M123" s="8"/>
       <c r="N123" s="8"/>
@@ -10709,7 +10652,7 @@
       <c r="AP123" s="8"/>
       <c r="AQ123" s="8"/>
     </row>
-    <row r="124" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="124" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L124" s="8"/>
       <c r="M124" s="8"/>
       <c r="N124" s="8"/>
@@ -10743,7 +10686,7 @@
       <c r="AP124" s="8"/>
       <c r="AQ124" s="8"/>
     </row>
-    <row r="125" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="125" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L125" s="8"/>
       <c r="M125" s="8"/>
       <c r="N125" s="8"/>
@@ -10777,7 +10720,7 @@
       <c r="AP125" s="8"/>
       <c r="AQ125" s="8"/>
     </row>
-    <row r="126" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="126" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L126" s="8"/>
       <c r="M126" s="8"/>
       <c r="N126" s="8"/>
@@ -10811,7 +10754,7 @@
       <c r="AP126" s="8"/>
       <c r="AQ126" s="8"/>
     </row>
-    <row r="127" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="127" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L127" s="8"/>
       <c r="M127" s="8"/>
       <c r="N127" s="8"/>
@@ -10845,7 +10788,7 @@
       <c r="AP127" s="8"/>
       <c r="AQ127" s="8"/>
     </row>
-    <row r="128" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="128" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L128" s="8"/>
       <c r="M128" s="8"/>
       <c r="N128" s="8"/>
@@ -10879,7 +10822,7 @@
       <c r="AP128" s="8"/>
       <c r="AQ128" s="8"/>
     </row>
-    <row r="129" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="129" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L129" s="8"/>
       <c r="M129" s="8"/>
       <c r="N129" s="8"/>
@@ -10913,7 +10856,7 @@
       <c r="AP129" s="8"/>
       <c r="AQ129" s="8"/>
     </row>
-    <row r="130" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="130" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L130" s="8"/>
       <c r="M130" s="8"/>
       <c r="N130" s="8"/>
@@ -10947,7 +10890,7 @@
       <c r="AP130" s="8"/>
       <c r="AQ130" s="8"/>
     </row>
-    <row r="131" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="131" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L131" s="8"/>
       <c r="M131" s="8"/>
       <c r="N131" s="8"/>
@@ -10981,7 +10924,7 @@
       <c r="AP131" s="8"/>
       <c r="AQ131" s="8"/>
     </row>
-    <row r="132" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="132" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L132" s="8"/>
       <c r="M132" s="8"/>
       <c r="N132" s="8"/>
@@ -11015,7 +10958,7 @@
       <c r="AP132" s="8"/>
       <c r="AQ132" s="8"/>
     </row>
-    <row r="133" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="133" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L133" s="8"/>
       <c r="M133" s="8"/>
       <c r="N133" s="8"/>
@@ -11049,7 +10992,7 @@
       <c r="AP133" s="8"/>
       <c r="AQ133" s="8"/>
     </row>
-    <row r="134" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="134" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L134" s="8"/>
       <c r="M134" s="8"/>
       <c r="N134" s="8"/>
@@ -11083,7 +11026,7 @@
       <c r="AP134" s="8"/>
       <c r="AQ134" s="8"/>
     </row>
-    <row r="135" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="135" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L135" s="8"/>
       <c r="M135" s="8"/>
       <c r="N135" s="8"/>
@@ -11117,7 +11060,7 @@
       <c r="AP135" s="8"/>
       <c r="AQ135" s="8"/>
     </row>
-    <row r="136" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="136" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L136" s="8"/>
       <c r="M136" s="8"/>
       <c r="N136" s="8"/>
@@ -11151,7 +11094,7 @@
       <c r="AP136" s="8"/>
       <c r="AQ136" s="8"/>
     </row>
-    <row r="137" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="137" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L137" s="8"/>
       <c r="M137" s="8"/>
       <c r="N137" s="8"/>
@@ -11185,7 +11128,7 @@
       <c r="AP137" s="8"/>
       <c r="AQ137" s="8"/>
     </row>
-    <row r="138" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="138" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L138" s="8"/>
       <c r="M138" s="8"/>
       <c r="N138" s="8"/>
@@ -11219,7 +11162,7 @@
       <c r="AP138" s="8"/>
       <c r="AQ138" s="8"/>
     </row>
-    <row r="139" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="139" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L139" s="8"/>
       <c r="M139" s="8"/>
       <c r="N139" s="8"/>
@@ -11253,7 +11196,7 @@
       <c r="AP139" s="8"/>
       <c r="AQ139" s="8"/>
     </row>
-    <row r="140" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="140" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L140" s="8"/>
       <c r="M140" s="8"/>
       <c r="N140" s="8"/>
@@ -11287,7 +11230,7 @@
       <c r="AP140" s="8"/>
       <c r="AQ140" s="8"/>
     </row>
-    <row r="141" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="141" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L141" s="8"/>
       <c r="M141" s="8"/>
       <c r="N141" s="8"/>
@@ -11321,7 +11264,7 @@
       <c r="AP141" s="8"/>
       <c r="AQ141" s="8"/>
     </row>
-    <row r="142" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="142" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L142" s="8"/>
       <c r="M142" s="8"/>
       <c r="N142" s="8"/>
@@ -11355,7 +11298,7 @@
       <c r="AP142" s="8"/>
       <c r="AQ142" s="8"/>
     </row>
-    <row r="143" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="143" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L143" s="8"/>
       <c r="M143" s="8"/>
       <c r="N143" s="8"/>
@@ -11389,7 +11332,7 @@
       <c r="AP143" s="8"/>
       <c r="AQ143" s="8"/>
     </row>
-    <row r="144" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="144" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L144" s="8"/>
       <c r="M144" s="8"/>
       <c r="N144" s="8"/>
@@ -11423,7 +11366,7 @@
       <c r="AP144" s="8"/>
       <c r="AQ144" s="8"/>
     </row>
-    <row r="145" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="145" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L145" s="8"/>
       <c r="M145" s="8"/>
       <c r="N145" s="8"/>
@@ -11457,7 +11400,7 @@
       <c r="AP145" s="8"/>
       <c r="AQ145" s="8"/>
     </row>
-    <row r="146" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="146" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L146" s="8"/>
       <c r="M146" s="8"/>
       <c r="N146" s="8"/>
@@ -11491,7 +11434,7 @@
       <c r="AP146" s="8"/>
       <c r="AQ146" s="8"/>
     </row>
-    <row r="147" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="147" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L147" s="8"/>
       <c r="M147" s="8"/>
       <c r="N147" s="8"/>
@@ -11525,7 +11468,7 @@
       <c r="AP147" s="8"/>
       <c r="AQ147" s="8"/>
     </row>
-    <row r="148" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="148" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L148" s="8"/>
       <c r="M148" s="8"/>
       <c r="N148" s="8"/>
@@ -11559,7 +11502,7 @@
       <c r="AP148" s="8"/>
       <c r="AQ148" s="8"/>
     </row>
-    <row r="149" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="149" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L149" s="8"/>
       <c r="M149" s="8"/>
       <c r="N149" s="8"/>
@@ -11593,7 +11536,7 @@
       <c r="AP149" s="8"/>
       <c r="AQ149" s="8"/>
     </row>
-    <row r="150" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="150" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L150" s="8"/>
       <c r="M150" s="8"/>
       <c r="N150" s="8"/>
@@ -11627,7 +11570,7 @@
       <c r="AP150" s="8"/>
       <c r="AQ150" s="8"/>
     </row>
-    <row r="151" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="151" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L151" s="8"/>
       <c r="M151" s="8"/>
       <c r="N151" s="8"/>
@@ -11661,7 +11604,7 @@
       <c r="AP151" s="8"/>
       <c r="AQ151" s="8"/>
     </row>
-    <row r="152" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="152" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L152" s="8"/>
       <c r="M152" s="8"/>
       <c r="N152" s="8"/>
@@ -11695,7 +11638,7 @@
       <c r="AP152" s="8"/>
       <c r="AQ152" s="8"/>
     </row>
-    <row r="153" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="153" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L153" s="8"/>
       <c r="M153" s="8"/>
       <c r="N153" s="8"/>
@@ -11729,7 +11672,7 @@
       <c r="AP153" s="8"/>
       <c r="AQ153" s="8"/>
     </row>
-    <row r="154" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="154" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L154" s="8"/>
       <c r="M154" s="8"/>
       <c r="N154" s="8"/>
@@ -11763,7 +11706,7 @@
       <c r="AP154" s="8"/>
       <c r="AQ154" s="8"/>
     </row>
-    <row r="155" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="155" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L155" s="8"/>
       <c r="M155" s="8"/>
       <c r="N155" s="8"/>
@@ -11797,7 +11740,7 @@
       <c r="AP155" s="8"/>
       <c r="AQ155" s="8"/>
     </row>
-    <row r="156" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="156" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L156" s="8"/>
       <c r="M156" s="8"/>
       <c r="N156" s="8"/>
@@ -11831,7 +11774,7 @@
       <c r="AP156" s="8"/>
       <c r="AQ156" s="8"/>
     </row>
-    <row r="157" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="157" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L157" s="8"/>
       <c r="M157" s="8"/>
       <c r="N157" s="8"/>
@@ -11865,7 +11808,7 @@
       <c r="AP157" s="8"/>
       <c r="AQ157" s="8"/>
     </row>
-    <row r="158" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="158" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L158" s="8"/>
       <c r="M158" s="8"/>
       <c r="N158" s="8"/>
@@ -11899,7 +11842,7 @@
       <c r="AP158" s="8"/>
       <c r="AQ158" s="8"/>
     </row>
-    <row r="159" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="159" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L159" s="8"/>
       <c r="M159" s="8"/>
       <c r="N159" s="8"/>
@@ -11933,7 +11876,7 @@
       <c r="AP159" s="8"/>
       <c r="AQ159" s="8"/>
     </row>
-    <row r="160" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="160" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L160" s="8"/>
       <c r="M160" s="8"/>
       <c r="N160" s="8"/>
@@ -11967,7 +11910,7 @@
       <c r="AP160" s="8"/>
       <c r="AQ160" s="8"/>
     </row>
-    <row r="161" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="161" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L161" s="8"/>
       <c r="M161" s="8"/>
       <c r="N161" s="8"/>
@@ -12001,7 +11944,7 @@
       <c r="AP161" s="8"/>
       <c r="AQ161" s="8"/>
     </row>
-    <row r="162" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="162" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L162" s="8"/>
       <c r="M162" s="8"/>
       <c r="N162" s="8"/>
@@ -12035,7 +11978,7 @@
       <c r="AP162" s="8"/>
       <c r="AQ162" s="8"/>
     </row>
-    <row r="163" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="163" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L163" s="8"/>
       <c r="M163" s="8"/>
       <c r="N163" s="8"/>
@@ -12069,7 +12012,7 @@
       <c r="AP163" s="8"/>
       <c r="AQ163" s="8"/>
     </row>
-    <row r="164" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="164" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L164" s="8"/>
       <c r="M164" s="8"/>
       <c r="N164" s="8"/>
@@ -12103,7 +12046,7 @@
       <c r="AP164" s="8"/>
       <c r="AQ164" s="8"/>
     </row>
-    <row r="165" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="165" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L165" s="8"/>
       <c r="M165" s="8"/>
       <c r="N165" s="8"/>
@@ -12137,7 +12080,7 @@
       <c r="AP165" s="8"/>
       <c r="AQ165" s="8"/>
     </row>
-    <row r="166" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="166" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L166" s="8"/>
       <c r="M166" s="8"/>
       <c r="N166" s="8"/>
@@ -12171,7 +12114,7 @@
       <c r="AP166" s="8"/>
       <c r="AQ166" s="8"/>
     </row>
-    <row r="167" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="167" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L167" s="8"/>
       <c r="M167" s="8"/>
       <c r="N167" s="8"/>
@@ -12205,7 +12148,7 @@
       <c r="AP167" s="8"/>
       <c r="AQ167" s="8"/>
     </row>
-    <row r="168" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="168" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L168" s="8"/>
       <c r="M168" s="8"/>
       <c r="N168" s="8"/>
@@ -12239,7 +12182,7 @@
       <c r="AP168" s="8"/>
       <c r="AQ168" s="8"/>
     </row>
-    <row r="169" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="169" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L169" s="8"/>
       <c r="M169" s="8"/>
       <c r="N169" s="8"/>
@@ -12273,7 +12216,7 @@
       <c r="AP169" s="8"/>
       <c r="AQ169" s="8"/>
     </row>
-    <row r="170" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="170" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L170" s="8"/>
       <c r="M170" s="8"/>
       <c r="N170" s="8"/>
@@ -12307,7 +12250,7 @@
       <c r="AP170" s="8"/>
       <c r="AQ170" s="8"/>
     </row>
-    <row r="171" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="171" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L171" s="8"/>
       <c r="M171" s="8"/>
       <c r="N171" s="8"/>
@@ -12341,7 +12284,7 @@
       <c r="AP171" s="8"/>
       <c r="AQ171" s="8"/>
     </row>
-    <row r="172" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="172" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L172" s="8"/>
       <c r="M172" s="8"/>
       <c r="N172" s="8"/>
@@ -12375,7 +12318,7 @@
       <c r="AP172" s="8"/>
       <c r="AQ172" s="8"/>
     </row>
-    <row r="173" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="173" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L173" s="8"/>
       <c r="M173" s="8"/>
       <c r="N173" s="8"/>
@@ -12409,7 +12352,7 @@
       <c r="AP173" s="8"/>
       <c r="AQ173" s="8"/>
     </row>
-    <row r="174" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="174" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L174" s="10"/>
       <c r="M174" s="10"/>
       <c r="N174" s="10"/>
@@ -12443,7 +12386,7 @@
       <c r="AP174" s="10"/>
       <c r="AQ174" s="10"/>
     </row>
-    <row r="175" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="175" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L175" s="10"/>
       <c r="M175" s="10"/>
       <c r="N175" s="10"/>
@@ -12477,7 +12420,7 @@
       <c r="AP175" s="10"/>
       <c r="AQ175" s="10"/>
     </row>
-    <row r="176" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="176" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L176" s="10"/>
       <c r="M176" s="10"/>
       <c r="N176" s="10"/>
@@ -12511,7 +12454,7 @@
       <c r="AP176" s="10"/>
       <c r="AQ176" s="11"/>
     </row>
-    <row r="177" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="177" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L177" s="10"/>
       <c r="M177" s="10"/>
       <c r="N177" s="10"/>
@@ -12545,7 +12488,7 @@
       <c r="AP177" s="10"/>
       <c r="AQ177" s="10"/>
     </row>
-    <row r="178" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="178" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L178" s="10"/>
       <c r="M178" s="10"/>
       <c r="N178" s="10"/>
@@ -12579,7 +12522,7 @@
       <c r="AP178" s="10"/>
       <c r="AQ178" s="10"/>
     </row>
-    <row r="179" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="179" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L179" s="10"/>
       <c r="M179" s="10"/>
       <c r="N179" s="10"/>
@@ -12613,7 +12556,7 @@
       <c r="AP179" s="10"/>
       <c r="AQ179" s="10"/>
     </row>
-    <row r="180" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="180" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L180" s="10"/>
       <c r="M180" s="10"/>
       <c r="N180" s="10"/>
@@ -12647,7 +12590,7 @@
       <c r="AP180" s="10"/>
       <c r="AQ180" s="10"/>
     </row>
-    <row r="181" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="181" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L181" s="10"/>
       <c r="M181" s="10"/>
       <c r="N181" s="10"/>
@@ -12681,7 +12624,7 @@
       <c r="AP181" s="10"/>
       <c r="AQ181" s="10"/>
     </row>
-    <row r="182" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="182" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L182" s="7"/>
       <c r="M182" s="10"/>
       <c r="N182" s="10"/>
@@ -12715,7 +12658,7 @@
       <c r="AP182" s="10"/>
       <c r="AQ182" s="10"/>
     </row>
-    <row r="183" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="183" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L183" s="7"/>
       <c r="M183" s="10"/>
       <c r="N183" s="10"/>
@@ -12749,7 +12692,7 @@
       <c r="AP183" s="10"/>
       <c r="AQ183" s="10"/>
     </row>
-    <row r="184" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="184" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L184" s="7"/>
       <c r="M184" s="10"/>
       <c r="N184" s="10"/>
@@ -12783,7 +12726,7 @@
       <c r="AP184" s="10"/>
       <c r="AQ184" s="10"/>
     </row>
-    <row r="185" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="185" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L185" s="10"/>
       <c r="M185" s="10"/>
       <c r="N185" s="10"/>
@@ -12817,7 +12760,7 @@
       <c r="AP185" s="10"/>
       <c r="AQ185" s="10"/>
     </row>
-    <row r="186" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="186" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L186" s="10"/>
       <c r="M186" s="10"/>
       <c r="N186" s="10"/>
@@ -12851,7 +12794,7 @@
       <c r="AP186" s="10"/>
       <c r="AQ186" s="10"/>
     </row>
-    <row r="187" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="187" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L187" s="10"/>
       <c r="M187" s="10"/>
       <c r="N187" s="10"/>
@@ -12885,7 +12828,7 @@
       <c r="AP187" s="10"/>
       <c r="AQ187" s="10"/>
     </row>
-    <row r="188" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="188" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L188" s="10"/>
       <c r="M188" s="10"/>
       <c r="N188" s="10"/>
@@ -12919,7 +12862,7 @@
       <c r="AP188" s="10"/>
       <c r="AQ188" s="10"/>
     </row>
-    <row r="189" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="189" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L189" s="10"/>
       <c r="M189" s="10"/>
       <c r="N189" s="10"/>
@@ -12953,7 +12896,7 @@
       <c r="AP189" s="10"/>
       <c r="AQ189" s="10"/>
     </row>
-    <row r="190" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="190" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L190" s="10"/>
       <c r="M190" s="10"/>
       <c r="N190" s="10"/>
@@ -12987,7 +12930,7 @@
       <c r="AP190" s="10"/>
       <c r="AQ190" s="10"/>
     </row>
-    <row r="191" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="191" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L191" s="10"/>
       <c r="M191" s="10"/>
       <c r="N191" s="10"/>
@@ -13021,7 +12964,7 @@
       <c r="AP191" s="10"/>
       <c r="AQ191" s="10"/>
     </row>
-    <row r="192" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="192" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L192" s="10"/>
       <c r="M192" s="10"/>
       <c r="N192" s="10"/>
@@ -13055,7 +12998,7 @@
       <c r="AP192" s="10"/>
       <c r="AQ192" s="10"/>
     </row>
-    <row r="193" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="193" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L193" s="10"/>
       <c r="M193" s="10"/>
       <c r="N193" s="10"/>
@@ -13089,7 +13032,7 @@
       <c r="AP193" s="10"/>
       <c r="AQ193" s="10"/>
     </row>
-    <row r="194" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="194" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L194" s="10"/>
       <c r="M194" s="10"/>
       <c r="N194" s="10"/>
@@ -13123,7 +13066,7 @@
       <c r="AP194" s="10"/>
       <c r="AQ194" s="10"/>
     </row>
-    <row r="195" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="195" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L195" s="10"/>
       <c r="M195" s="10"/>
       <c r="N195" s="10"/>
@@ -13157,7 +13100,7 @@
       <c r="AP195" s="10"/>
       <c r="AQ195" s="10"/>
     </row>
-    <row r="196" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="196" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L196" s="10"/>
       <c r="M196" s="10"/>
       <c r="N196" s="10"/>
@@ -13191,7 +13134,7 @@
       <c r="AP196" s="10"/>
       <c r="AQ196" s="10"/>
     </row>
-    <row r="197" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="197" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L197" s="10"/>
       <c r="M197" s="10"/>
       <c r="N197" s="10"/>
@@ -13225,7 +13168,7 @@
       <c r="AP197" s="10"/>
       <c r="AQ197" s="10"/>
     </row>
-    <row r="198" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="198" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L198" s="10"/>
       <c r="M198" s="10"/>
       <c r="N198" s="10"/>
@@ -13259,7 +13202,7 @@
       <c r="AP198" s="10"/>
       <c r="AQ198" s="10"/>
     </row>
-    <row r="199" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="199" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L199" s="10"/>
       <c r="M199" s="10"/>
       <c r="N199" s="10"/>
@@ -13293,7 +13236,7 @@
       <c r="AP199" s="10"/>
       <c r="AQ199" s="10"/>
     </row>
-    <row r="200" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="200" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L200" s="10"/>
       <c r="M200" s="10"/>
       <c r="N200" s="10"/>
@@ -13327,7 +13270,7 @@
       <c r="AP200" s="10"/>
       <c r="AQ200" s="10"/>
     </row>
-    <row r="201" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="201" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L201" s="10"/>
       <c r="M201" s="10"/>
       <c r="N201" s="10"/>
@@ -13361,7 +13304,7 @@
       <c r="AP201" s="10"/>
       <c r="AQ201" s="10"/>
     </row>
-    <row r="202" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="202" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L202" s="10"/>
       <c r="M202" s="10"/>
       <c r="N202" s="10"/>
@@ -13395,7 +13338,7 @@
       <c r="AP202" s="10"/>
       <c r="AQ202" s="10"/>
     </row>
-    <row r="203" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="203" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L203" s="10"/>
       <c r="M203" s="10"/>
       <c r="N203" s="10"/>
@@ -13429,7 +13372,7 @@
       <c r="AP203" s="10"/>
       <c r="AQ203" s="10"/>
     </row>
-    <row r="204" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="204" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L204" s="10"/>
       <c r="M204" s="10"/>
       <c r="N204" s="10"/>
@@ -13463,7 +13406,7 @@
       <c r="AP204" s="10"/>
       <c r="AQ204" s="10"/>
     </row>
-    <row r="205" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="205" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L205" s="10"/>
       <c r="M205" s="10"/>
       <c r="N205" s="10"/>
@@ -13497,7 +13440,7 @@
       <c r="AP205" s="10"/>
       <c r="AQ205" s="10"/>
     </row>
-    <row r="206" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="206" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L206" s="10"/>
       <c r="M206" s="10"/>
       <c r="N206" s="10"/>
@@ -13531,7 +13474,7 @@
       <c r="AP206" s="10"/>
       <c r="AQ206" s="10"/>
     </row>
-    <row r="207" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="207" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L207" s="10"/>
       <c r="M207" s="10"/>
       <c r="N207" s="10"/>
@@ -13565,7 +13508,7 @@
       <c r="AP207" s="10"/>
       <c r="AQ207" s="10"/>
     </row>
-    <row r="208" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="208" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L208" s="8"/>
       <c r="M208" s="8"/>
       <c r="N208" s="8"/>
@@ -13599,7 +13542,7 @@
       <c r="AP208" s="8"/>
       <c r="AQ208" s="8"/>
     </row>
-    <row r="209" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="209" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L209" s="8"/>
       <c r="M209" s="8"/>
       <c r="N209" s="8"/>
@@ -13633,7 +13576,7 @@
       <c r="AP209" s="8"/>
       <c r="AQ209" s="8"/>
     </row>
-    <row r="210" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="210" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L210" s="8"/>
       <c r="M210" s="8"/>
       <c r="N210" s="8"/>
@@ -13667,7 +13610,7 @@
       <c r="AP210" s="8"/>
       <c r="AQ210" s="8"/>
     </row>
-    <row r="211" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="211" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L211" s="8"/>
       <c r="M211" s="8"/>
       <c r="N211" s="8"/>
@@ -13701,7 +13644,7 @@
       <c r="AP211" s="8"/>
       <c r="AQ211" s="8"/>
     </row>
-    <row r="212" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="212" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L212" s="8"/>
       <c r="M212" s="8"/>
       <c r="N212" s="8"/>
@@ -13735,7 +13678,7 @@
       <c r="AP212" s="8"/>
       <c r="AQ212" s="8"/>
     </row>
-    <row r="213" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="213" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L213" s="8"/>
       <c r="M213" s="8"/>
       <c r="N213" s="8"/>
@@ -13769,7 +13712,7 @@
       <c r="AP213" s="8"/>
       <c r="AQ213" s="8"/>
     </row>
-    <row r="214" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="214" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L214" s="8"/>
       <c r="M214" s="8"/>
       <c r="N214" s="8"/>
@@ -13803,7 +13746,7 @@
       <c r="AP214" s="8"/>
       <c r="AQ214" s="8"/>
     </row>
-    <row r="215" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="215" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L215" s="8"/>
       <c r="M215" s="8"/>
       <c r="N215" s="8"/>
@@ -13837,7 +13780,7 @@
       <c r="AP215" s="8"/>
       <c r="AQ215" s="8"/>
     </row>
-    <row r="216" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="216" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L216" s="8"/>
       <c r="M216" s="8"/>
       <c r="N216" s="8"/>
@@ -13871,7 +13814,7 @@
       <c r="AP216" s="8"/>
       <c r="AQ216" s="8"/>
     </row>
-    <row r="217" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="217" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L217" s="8"/>
       <c r="M217" s="8"/>
       <c r="N217" s="8"/>
@@ -13905,7 +13848,7 @@
       <c r="AP217" s="8"/>
       <c r="AQ217" s="8"/>
     </row>
-    <row r="218" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="218" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L218" s="8"/>
       <c r="M218" s="8"/>
       <c r="N218" s="8"/>
@@ -13939,7 +13882,7 @@
       <c r="AP218" s="8"/>
       <c r="AQ218" s="8"/>
     </row>
-    <row r="219" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="219" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L219" s="8"/>
       <c r="M219" s="8"/>
       <c r="N219" s="8"/>
@@ -13973,7 +13916,7 @@
       <c r="AP219" s="8"/>
       <c r="AQ219" s="8"/>
     </row>
-    <row r="220" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="220" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L220" s="8"/>
       <c r="M220" s="8"/>
       <c r="N220" s="8"/>
@@ -14007,7 +13950,7 @@
       <c r="AP220" s="8"/>
       <c r="AQ220" s="8"/>
     </row>
-    <row r="221" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="221" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L221" s="8"/>
       <c r="M221" s="8"/>
       <c r="N221" s="8"/>
@@ -14041,7 +13984,7 @@
       <c r="AP221" s="8"/>
       <c r="AQ221" s="8"/>
     </row>
-    <row r="222" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="222" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L222" s="8"/>
       <c r="M222" s="8"/>
       <c r="N222" s="8"/>
@@ -14075,7 +14018,7 @@
       <c r="AP222" s="8"/>
       <c r="AQ222" s="8"/>
     </row>
-    <row r="223" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="223" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L223" s="8"/>
       <c r="M223" s="8"/>
       <c r="N223" s="8"/>
@@ -14109,7 +14052,7 @@
       <c r="AP223" s="8"/>
       <c r="AQ223" s="8"/>
     </row>
-    <row r="224" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="224" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L224" s="8"/>
       <c r="M224" s="8"/>
       <c r="N224" s="8"/>
@@ -14143,7 +14086,7 @@
       <c r="AP224" s="8"/>
       <c r="AQ224" s="8"/>
     </row>
-    <row r="225" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="225" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L225" s="8"/>
       <c r="M225" s="8"/>
       <c r="N225" s="8"/>
@@ -14177,7 +14120,7 @@
       <c r="AP225" s="8"/>
       <c r="AQ225" s="8"/>
     </row>
-    <row r="226" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="226" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L226" s="8"/>
       <c r="M226" s="8"/>
       <c r="N226" s="8"/>
@@ -14211,7 +14154,7 @@
       <c r="AP226" s="8"/>
       <c r="AQ226" s="8"/>
     </row>
-    <row r="227" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="227" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L227" s="8"/>
       <c r="M227" s="8"/>
       <c r="N227" s="8"/>
@@ -14245,7 +14188,7 @@
       <c r="AP227" s="8"/>
       <c r="AQ227" s="8"/>
     </row>
-    <row r="228" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="228" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L228" s="8"/>
       <c r="M228" s="8"/>
       <c r="N228" s="8"/>
@@ -14279,7 +14222,7 @@
       <c r="AP228" s="8"/>
       <c r="AQ228" s="8"/>
     </row>
-    <row r="229" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="229" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L229" s="8"/>
       <c r="M229" s="8"/>
       <c r="N229" s="8"/>
@@ -14313,7 +14256,7 @@
       <c r="AP229" s="8"/>
       <c r="AQ229" s="8"/>
     </row>
-    <row r="230" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="230" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L230" s="8"/>
       <c r="M230" s="8"/>
       <c r="N230" s="8"/>
@@ -14347,7 +14290,7 @@
       <c r="AP230" s="8"/>
       <c r="AQ230" s="8"/>
     </row>
-    <row r="231" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="231" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L231" s="8"/>
       <c r="M231" s="8"/>
       <c r="N231" s="8"/>
@@ -14381,7 +14324,7 @@
       <c r="AP231" s="8"/>
       <c r="AQ231" s="8"/>
     </row>
-    <row r="232" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="232" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L232" s="8"/>
       <c r="M232" s="8"/>
       <c r="N232" s="8"/>
@@ -14415,7 +14358,7 @@
       <c r="AP232" s="8"/>
       <c r="AQ232" s="8"/>
     </row>
-    <row r="233" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="233" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L233" s="8"/>
       <c r="M233" s="8"/>
       <c r="N233" s="8"/>
@@ -14449,7 +14392,7 @@
       <c r="AP233" s="8"/>
       <c r="AQ233" s="8"/>
     </row>
-    <row r="234" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="234" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L234" s="8"/>
       <c r="M234" s="8"/>
       <c r="N234" s="8"/>
@@ -14483,7 +14426,7 @@
       <c r="AP234" s="8"/>
       <c r="AQ234" s="8"/>
     </row>
-    <row r="235" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="235" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L235" s="8"/>
       <c r="M235" s="8"/>
       <c r="N235" s="8"/>
@@ -14517,7 +14460,7 @@
       <c r="AP235" s="8"/>
       <c r="AQ235" s="8"/>
     </row>
-    <row r="236" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="236" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L236" s="8"/>
       <c r="M236" s="8"/>
       <c r="N236" s="8"/>
@@ -14551,7 +14494,7 @@
       <c r="AP236" s="8"/>
       <c r="AQ236" s="8"/>
     </row>
-    <row r="237" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="237" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L237" s="8"/>
       <c r="M237" s="8"/>
       <c r="N237" s="8"/>
@@ -14585,7 +14528,7 @@
       <c r="AP237" s="8"/>
       <c r="AQ237" s="8"/>
     </row>
-    <row r="238" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="238" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L238" s="8"/>
       <c r="M238" s="8"/>
       <c r="N238" s="8"/>
@@ -14619,7 +14562,7 @@
       <c r="AP238" s="8"/>
       <c r="AQ238" s="8"/>
     </row>
-    <row r="239" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="239" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L239" s="8"/>
       <c r="M239" s="8"/>
       <c r="N239" s="8"/>
@@ -14653,7 +14596,7 @@
       <c r="AP239" s="8"/>
       <c r="AQ239" s="8"/>
     </row>
-    <row r="240" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="240" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L240" s="8"/>
       <c r="M240" s="8"/>
       <c r="N240" s="8"/>
@@ -14687,7 +14630,7 @@
       <c r="AP240" s="8"/>
       <c r="AQ240" s="8"/>
     </row>
-    <row r="241" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="241" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L241" s="8"/>
       <c r="M241" s="8"/>
       <c r="N241" s="8"/>
@@ -14721,7 +14664,7 @@
       <c r="AP241" s="8"/>
       <c r="AQ241" s="8"/>
     </row>
-    <row r="242" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="242" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L242" s="8"/>
       <c r="M242" s="8"/>
       <c r="N242" s="8"/>
@@ -14755,7 +14698,7 @@
       <c r="AP242" s="8"/>
       <c r="AQ242" s="8"/>
     </row>
-    <row r="243" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="243" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L243" s="8"/>
       <c r="M243" s="8"/>
       <c r="N243" s="8"/>
@@ -14789,7 +14732,7 @@
       <c r="AP243" s="8"/>
       <c r="AQ243" s="8"/>
     </row>
-    <row r="244" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="244" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L244" s="8"/>
       <c r="M244" s="8"/>
       <c r="N244" s="8"/>
@@ -14823,7 +14766,7 @@
       <c r="AP244" s="8"/>
       <c r="AQ244" s="8"/>
     </row>
-    <row r="245" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="245" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L245" s="8"/>
       <c r="M245" s="8"/>
       <c r="N245" s="8"/>
@@ -14857,7 +14800,7 @@
       <c r="AP245" s="8"/>
       <c r="AQ245" s="8"/>
     </row>
-    <row r="246" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="246" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L246" s="8"/>
       <c r="M246" s="8"/>
       <c r="N246" s="8"/>
@@ -14891,7 +14834,7 @@
       <c r="AP246" s="8"/>
       <c r="AQ246" s="8"/>
     </row>
-    <row r="247" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="247" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L247" s="8"/>
       <c r="M247" s="8"/>
       <c r="N247" s="8"/>
@@ -14925,7 +14868,7 @@
       <c r="AP247" s="8"/>
       <c r="AQ247" s="8"/>
     </row>
-    <row r="248" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="248" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L248" s="8"/>
       <c r="M248" s="8"/>
       <c r="N248" s="8"/>
@@ -14959,7 +14902,7 @@
       <c r="AP248" s="8"/>
       <c r="AQ248" s="8"/>
     </row>
-    <row r="249" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="249" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L249" s="8"/>
       <c r="M249" s="8"/>
       <c r="N249" s="8"/>
@@ -14993,7 +14936,7 @@
       <c r="AP249" s="8"/>
       <c r="AQ249" s="8"/>
     </row>
-    <row r="250" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="250" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L250" s="8"/>
       <c r="M250" s="8"/>
       <c r="N250" s="8"/>
@@ -15027,7 +14970,7 @@
       <c r="AP250" s="8"/>
       <c r="AQ250" s="8"/>
     </row>
-    <row r="251" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="251" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L251" s="8"/>
       <c r="M251" s="8"/>
       <c r="N251" s="8"/>
@@ -15061,7 +15004,7 @@
       <c r="AP251" s="8"/>
       <c r="AQ251" s="8"/>
     </row>
-    <row r="252" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="252" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L252" s="8"/>
       <c r="M252" s="8"/>
       <c r="N252" s="8"/>
@@ -15095,7 +15038,7 @@
       <c r="AP252" s="8"/>
       <c r="AQ252" s="8"/>
     </row>
-    <row r="253" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="253" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L253" s="8"/>
       <c r="M253" s="8"/>
       <c r="N253" s="8"/>
@@ -15129,7 +15072,7 @@
       <c r="AP253" s="8"/>
       <c r="AQ253" s="8"/>
     </row>
-    <row r="254" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="254" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L254" s="8"/>
       <c r="M254" s="8"/>
       <c r="N254" s="8"/>
@@ -15163,7 +15106,7 @@
       <c r="AP254" s="8"/>
       <c r="AQ254" s="8"/>
     </row>
-    <row r="255" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="255" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L255" s="8"/>
       <c r="M255" s="8"/>
       <c r="N255" s="8"/>
@@ -15197,7 +15140,7 @@
       <c r="AP255" s="8"/>
       <c r="AQ255" s="8"/>
     </row>
-    <row r="256" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="256" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L256" s="8"/>
       <c r="M256" s="8"/>
       <c r="N256" s="8"/>
@@ -15231,7 +15174,7 @@
       <c r="AP256" s="8"/>
       <c r="AQ256" s="8"/>
     </row>
-    <row r="257" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="257" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L257" s="8"/>
       <c r="M257" s="8"/>
       <c r="N257" s="8"/>
@@ -15265,7 +15208,7 @@
       <c r="AP257" s="8"/>
       <c r="AQ257" s="8"/>
     </row>
-    <row r="258" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="258" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L258" s="8"/>
       <c r="M258" s="8"/>
       <c r="N258" s="8"/>
@@ -15299,7 +15242,7 @@
       <c r="AP258" s="8"/>
       <c r="AQ258" s="8"/>
     </row>
-    <row r="259" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="259" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L259" s="8"/>
       <c r="M259" s="8"/>
       <c r="N259" s="8"/>
@@ -15333,7 +15276,7 @@
       <c r="AP259" s="8"/>
       <c r="AQ259" s="8"/>
     </row>
-    <row r="260" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="260" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L260" s="8"/>
       <c r="M260" s="8"/>
       <c r="N260" s="8"/>
@@ -15367,7 +15310,7 @@
       <c r="AP260" s="8"/>
       <c r="AQ260" s="8"/>
     </row>
-    <row r="261" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="261" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L261" s="8"/>
       <c r="M261" s="8"/>
       <c r="N261" s="8"/>
@@ -15401,7 +15344,7 @@
       <c r="AP261" s="8"/>
       <c r="AQ261" s="8"/>
     </row>
-    <row r="262" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="262" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L262" s="8"/>
       <c r="M262" s="8"/>
       <c r="N262" s="8"/>
@@ -15435,7 +15378,7 @@
       <c r="AP262" s="8"/>
       <c r="AQ262" s="8"/>
     </row>
-    <row r="263" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="263" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L263" s="8"/>
       <c r="M263" s="8"/>
       <c r="N263" s="8"/>
@@ -15469,7 +15412,7 @@
       <c r="AP263" s="8"/>
       <c r="AQ263" s="8"/>
     </row>
-    <row r="264" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="264" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L264" s="8"/>
       <c r="M264" s="8"/>
       <c r="N264" s="8"/>
@@ -15503,7 +15446,7 @@
       <c r="AP264" s="8"/>
       <c r="AQ264" s="8"/>
     </row>
-    <row r="265" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="265" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L265" s="8"/>
       <c r="M265" s="8"/>
       <c r="N265" s="8"/>
@@ -15537,7 +15480,7 @@
       <c r="AP265" s="8"/>
       <c r="AQ265" s="8"/>
     </row>
-    <row r="266" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="266" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L266" s="8"/>
       <c r="M266" s="8"/>
       <c r="N266" s="8"/>
@@ -15571,7 +15514,7 @@
       <c r="AP266" s="8"/>
       <c r="AQ266" s="8"/>
     </row>
-    <row r="267" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="267" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L267" s="8"/>
       <c r="M267" s="8"/>
       <c r="N267" s="8"/>
@@ -15605,7 +15548,7 @@
       <c r="AP267" s="8"/>
       <c r="AQ267" s="8"/>
     </row>
-    <row r="268" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="268" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L268" s="8"/>
       <c r="M268" s="8"/>
       <c r="N268" s="8"/>
@@ -15639,7 +15582,7 @@
       <c r="AP268" s="8"/>
       <c r="AQ268" s="8"/>
     </row>
-    <row r="269" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="269" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L269" s="8"/>
       <c r="M269" s="8"/>
       <c r="N269" s="8"/>
@@ -15673,7 +15616,7 @@
       <c r="AP269" s="8"/>
       <c r="AQ269" s="8"/>
     </row>
-    <row r="270" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="270" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L270" s="8"/>
       <c r="M270" s="8"/>
       <c r="N270" s="8"/>
@@ -15707,7 +15650,7 @@
       <c r="AP270" s="8"/>
       <c r="AQ270" s="8"/>
     </row>
-    <row r="271" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="271" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L271" s="8"/>
       <c r="M271" s="8"/>
       <c r="N271" s="8"/>
@@ -15741,7 +15684,7 @@
       <c r="AP271" s="8"/>
       <c r="AQ271" s="8"/>
     </row>
-    <row r="272" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="272" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L272" s="8"/>
       <c r="M272" s="8"/>
       <c r="N272" s="8"/>
@@ -15775,7 +15718,7 @@
       <c r="AP272" s="8"/>
       <c r="AQ272" s="8"/>
     </row>
-    <row r="273" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="273" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L273" s="8"/>
       <c r="M273" s="8"/>
       <c r="N273" s="8"/>
@@ -15809,7 +15752,7 @@
       <c r="AP273" s="8"/>
       <c r="AQ273" s="8"/>
     </row>
-    <row r="274" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="274" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L274" s="8"/>
       <c r="M274" s="8"/>
       <c r="N274" s="8"/>
@@ -15843,7 +15786,7 @@
       <c r="AP274" s="8"/>
       <c r="AQ274" s="8"/>
     </row>
-    <row r="275" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="275" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L275" s="8"/>
       <c r="M275" s="8"/>
       <c r="N275" s="8"/>
@@ -15877,7 +15820,7 @@
       <c r="AP275" s="8"/>
       <c r="AQ275" s="8"/>
     </row>
-    <row r="276" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="276" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L276" s="8"/>
       <c r="M276" s="8"/>
       <c r="N276" s="8"/>
@@ -15911,7 +15854,7 @@
       <c r="AP276" s="8"/>
       <c r="AQ276" s="8"/>
     </row>
-    <row r="277" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="277" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L277" s="10"/>
       <c r="M277" s="10"/>
       <c r="N277" s="10"/>
@@ -15945,7 +15888,7 @@
       <c r="AP277" s="10"/>
       <c r="AQ277" s="10"/>
     </row>
-    <row r="278" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="278" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L278" s="10"/>
       <c r="M278" s="10"/>
       <c r="N278" s="10"/>
@@ -15979,7 +15922,7 @@
       <c r="AP278" s="10"/>
       <c r="AQ278" s="10"/>
     </row>
-    <row r="279" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="279" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L279" s="10"/>
       <c r="M279" s="10"/>
       <c r="N279" s="10"/>
@@ -16013,7 +15956,7 @@
       <c r="AP279" s="10"/>
       <c r="AQ279" s="10"/>
     </row>
-    <row r="280" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="280" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L280" s="10"/>
       <c r="M280" s="10"/>
       <c r="N280" s="10"/>
@@ -16047,7 +15990,7 @@
       <c r="AP280" s="10"/>
       <c r="AQ280" s="10"/>
     </row>
-    <row r="281" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="281" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L281" s="10"/>
       <c r="M281" s="10"/>
       <c r="N281" s="10"/>
@@ -16081,7 +16024,7 @@
       <c r="AP281" s="10"/>
       <c r="AQ281" s="10"/>
     </row>
-    <row r="282" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="282" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L282" s="10"/>
       <c r="M282" s="10"/>
       <c r="N282" s="10"/>
@@ -16115,7 +16058,7 @@
       <c r="AP282" s="10"/>
       <c r="AQ282" s="10"/>
     </row>
-    <row r="283" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="283" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L283" s="10"/>
       <c r="M283" s="10"/>
       <c r="N283" s="10"/>
@@ -16149,7 +16092,7 @@
       <c r="AP283" s="10"/>
       <c r="AQ283" s="10"/>
     </row>
-    <row r="284" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="284" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L284" s="10"/>
       <c r="M284" s="10"/>
       <c r="N284" s="10"/>
@@ -16183,7 +16126,7 @@
       <c r="AP284" s="10"/>
       <c r="AQ284" s="10"/>
     </row>
-    <row r="285" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="285" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L285" s="10"/>
       <c r="M285" s="10"/>
       <c r="N285" s="10"/>
@@ -16217,7 +16160,7 @@
       <c r="AP285" s="10"/>
       <c r="AQ285" s="10"/>
     </row>
-    <row r="286" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="286" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L286" s="10"/>
       <c r="M286" s="10"/>
       <c r="N286" s="10"/>
@@ -16251,7 +16194,7 @@
       <c r="AP286" s="10"/>
       <c r="AQ286" s="10"/>
     </row>
-    <row r="287" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="287" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L287" s="10"/>
       <c r="M287" s="10"/>
       <c r="N287" s="10"/>
@@ -16285,7 +16228,7 @@
       <c r="AP287" s="10"/>
       <c r="AQ287" s="10"/>
     </row>
-    <row r="288" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="288" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L288" s="10"/>
       <c r="M288" s="10"/>
       <c r="N288" s="10"/>
@@ -16319,7 +16262,7 @@
       <c r="AP288" s="10"/>
       <c r="AQ288" s="10"/>
     </row>
-    <row r="289" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="289" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L289" s="10"/>
       <c r="M289" s="10"/>
       <c r="N289" s="10"/>
@@ -16353,7 +16296,7 @@
       <c r="AP289" s="10"/>
       <c r="AQ289" s="10"/>
     </row>
-    <row r="290" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="290" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L290" s="10"/>
       <c r="M290" s="10"/>
       <c r="N290" s="10"/>
@@ -16387,7 +16330,7 @@
       <c r="AP290" s="10"/>
       <c r="AQ290" s="10"/>
     </row>
-    <row r="291" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="291" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L291" s="10"/>
       <c r="M291" s="10"/>
       <c r="N291" s="10"/>
@@ -16421,7 +16364,7 @@
       <c r="AP291" s="10"/>
       <c r="AQ291" s="10"/>
     </row>
-    <row r="292" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="292" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L292" s="10"/>
       <c r="M292" s="10"/>
       <c r="N292" s="10"/>
@@ -16455,7 +16398,7 @@
       <c r="AP292" s="10"/>
       <c r="AQ292" s="10"/>
     </row>
-    <row r="293" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="293" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L293" s="10"/>
       <c r="M293" s="10"/>
       <c r="N293" s="10"/>
@@ -16489,7 +16432,7 @@
       <c r="AP293" s="10"/>
       <c r="AQ293" s="10"/>
     </row>
-    <row r="294" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="294" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L294" s="10"/>
       <c r="M294" s="10"/>
       <c r="N294" s="10"/>
@@ -16523,7 +16466,7 @@
       <c r="AP294" s="10"/>
       <c r="AQ294" s="10"/>
     </row>
-    <row r="295" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="295" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L295" s="10"/>
       <c r="M295" s="10"/>
       <c r="N295" s="10"/>
@@ -16557,7 +16500,7 @@
       <c r="AP295" s="10"/>
       <c r="AQ295" s="10"/>
     </row>
-    <row r="296" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="296" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L296" s="10"/>
       <c r="M296" s="10"/>
       <c r="N296" s="10"/>
@@ -16591,7 +16534,7 @@
       <c r="AP296" s="10"/>
       <c r="AQ296" s="10"/>
     </row>
-    <row r="297" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="297" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L297" s="10"/>
       <c r="M297" s="10"/>
       <c r="N297" s="10"/>
@@ -16625,7 +16568,7 @@
       <c r="AP297" s="10"/>
       <c r="AQ297" s="10"/>
     </row>
-    <row r="298" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="298" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L298" s="10"/>
       <c r="M298" s="10"/>
       <c r="N298" s="10"/>
@@ -16659,7 +16602,7 @@
       <c r="AP298" s="10"/>
       <c r="AQ298" s="10"/>
     </row>
-    <row r="299" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="299" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L299" s="10"/>
       <c r="M299" s="10"/>
       <c r="N299" s="10"/>
@@ -16693,7 +16636,7 @@
       <c r="AP299" s="10"/>
       <c r="AQ299" s="10"/>
     </row>
-    <row r="300" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="300" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L300" s="10"/>
       <c r="M300" s="10"/>
       <c r="N300" s="10"/>
@@ -16727,7 +16670,7 @@
       <c r="AP300" s="10"/>
       <c r="AQ300" s="10"/>
     </row>
-    <row r="301" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="301" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L301" s="10"/>
       <c r="M301" s="10"/>
       <c r="N301" s="10"/>
@@ -16761,7 +16704,7 @@
       <c r="AP301" s="10"/>
       <c r="AQ301" s="10"/>
     </row>
-    <row r="302" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="302" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L302" s="10"/>
       <c r="M302" s="10"/>
       <c r="N302" s="10"/>
@@ -16795,7 +16738,7 @@
       <c r="AP302" s="10"/>
       <c r="AQ302" s="10"/>
     </row>
-    <row r="303" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="303" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L303" s="10"/>
       <c r="M303" s="10"/>
       <c r="N303" s="10"/>
@@ -16829,7 +16772,7 @@
       <c r="AP303" s="10"/>
       <c r="AQ303" s="10"/>
     </row>
-    <row r="304" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="304" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L304" s="10"/>
       <c r="M304" s="10"/>
       <c r="N304" s="10"/>
@@ -16863,7 +16806,7 @@
       <c r="AP304" s="10"/>
       <c r="AQ304" s="10"/>
     </row>
-    <row r="305" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="305" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L305" s="10"/>
       <c r="M305" s="10"/>
       <c r="N305" s="10"/>
@@ -16897,7 +16840,7 @@
       <c r="AP305" s="10"/>
       <c r="AQ305" s="10"/>
     </row>
-    <row r="306" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="306" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L306" s="10"/>
       <c r="M306" s="10"/>
       <c r="N306" s="10"/>
@@ -16931,7 +16874,7 @@
       <c r="AP306" s="10"/>
       <c r="AQ306" s="10"/>
     </row>
-    <row r="307" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="307" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L307" s="10"/>
       <c r="M307" s="10"/>
       <c r="N307" s="10"/>
@@ -16965,7 +16908,7 @@
       <c r="AP307" s="10"/>
       <c r="AQ307" s="10"/>
     </row>
-    <row r="308" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="308" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L308" s="10"/>
       <c r="M308" s="10"/>
       <c r="N308" s="10"/>
@@ -16999,7 +16942,7 @@
       <c r="AP308" s="10"/>
       <c r="AQ308" s="10"/>
     </row>
-    <row r="309" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="309" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L309" s="10"/>
       <c r="M309" s="10"/>
       <c r="N309" s="10"/>
@@ -17033,7 +16976,7 @@
       <c r="AP309" s="10"/>
       <c r="AQ309" s="10"/>
     </row>
-    <row r="310" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="310" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L310" s="10"/>
       <c r="M310" s="10"/>
       <c r="N310" s="10"/>
@@ -17067,7 +17010,7 @@
       <c r="AP310" s="10"/>
       <c r="AQ310" s="10"/>
     </row>
-    <row r="311" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="311" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L311" s="10"/>
       <c r="M311" s="10"/>
       <c r="N311" s="10"/>
@@ -17101,7 +17044,7 @@
       <c r="AP311" s="10"/>
       <c r="AQ311" s="10"/>
     </row>
-    <row r="312" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="312" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L312" s="10"/>
       <c r="M312" s="10"/>
       <c r="N312" s="10"/>
@@ -17135,7 +17078,7 @@
       <c r="AP312" s="10"/>
       <c r="AQ312" s="10"/>
     </row>
-    <row r="313" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="313" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L313" s="10"/>
       <c r="M313" s="10"/>
       <c r="N313" s="10"/>
@@ -17169,7 +17112,7 @@
       <c r="AP313" s="10"/>
       <c r="AQ313" s="10"/>
     </row>
-    <row r="314" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="314" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L314" s="10"/>
       <c r="M314" s="10"/>
       <c r="N314" s="10"/>
@@ -17203,7 +17146,7 @@
       <c r="AP314" s="10"/>
       <c r="AQ314" s="10"/>
     </row>
-    <row r="315" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="315" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L315" s="10"/>
       <c r="M315" s="10"/>
       <c r="N315" s="10"/>
@@ -17237,7 +17180,7 @@
       <c r="AP315" s="10"/>
       <c r="AQ315" s="10"/>
     </row>
-    <row r="316" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="316" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L316" s="7"/>
       <c r="M316" s="10"/>
       <c r="N316" s="10"/>
@@ -17271,7 +17214,7 @@
       <c r="AP316" s="10"/>
       <c r="AQ316" s="10"/>
     </row>
-    <row r="317" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="317" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L317" s="7"/>
       <c r="M317" s="10"/>
       <c r="N317" s="10"/>
@@ -17305,7 +17248,7 @@
       <c r="AP317" s="10"/>
       <c r="AQ317" s="10"/>
     </row>
-    <row r="318" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="318" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L318" s="7"/>
       <c r="M318" s="10"/>
       <c r="N318" s="10"/>
@@ -17339,7 +17282,7 @@
       <c r="AP318" s="10"/>
       <c r="AQ318" s="10"/>
     </row>
-    <row r="319" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="319" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L319" s="10"/>
       <c r="M319" s="10"/>
       <c r="N319" s="10"/>
@@ -17373,7 +17316,7 @@
       <c r="AP319" s="10"/>
       <c r="AQ319" s="10"/>
     </row>
-    <row r="320" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="320" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L320" s="10"/>
       <c r="M320" s="10"/>
       <c r="N320" s="10"/>
@@ -17407,7 +17350,7 @@
       <c r="AP320" s="10"/>
       <c r="AQ320" s="10"/>
     </row>
-    <row r="321" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="321" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L321" s="10"/>
       <c r="M321" s="10"/>
       <c r="N321" s="10"/>
@@ -17441,7 +17384,7 @@
       <c r="AP321" s="10"/>
       <c r="AQ321" s="10"/>
     </row>
-    <row r="322" spans="12:43" x14ac:dyDescent="0.3">
+    <row r="322" spans="12:43" x14ac:dyDescent="0.35">
       <c r="L322" s="10"/>
       <c r="M322" s="10"/>
       <c r="N322" s="10"/>
